--- a/SAO_LEOPOLDO.xlsx
+++ b/SAO_LEOPOLDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E97395-966E-4441-980C-3C03555A7D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{565D1C25-A4AD-4984-9133-1099ADF0C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{994B7B98-9F05-451E-9CA0-15EF9E7A6AA6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F277DB80-E679-4CE9-A281-B568D6E38B7B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1397,10 +1397,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BD2E58-F311-495B-855A-D50E6FBA1E2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9DD7C5-3C0A-47A1-B230-5F3EC9A5CA91}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB8828-B293-48BE-B4FA-791CCC88E0CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA01998D-4108-417C-95DA-21A0000B5DFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1501,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24DF135-1D55-40C0-9835-5541F46B1DC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E36040-1851-49E8-B22B-8117577CB442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD3332B-7C10-962D-CD03-36A78506B0EE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D51C0-AD72-D664-0775-7001692EC427}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2762143C-CC9C-A60A-5C39-D6C3A9A1CB2C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508E1C0-B00F-648F-E71B-0FA86D09A258}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1588,7 +1588,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFCB8C1-2F28-AFB5-06BD-EB40A7DF2FEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF33ED0-56A5-AA0C-0786-A242C25F23DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535BD256-3D78-5188-5908-0BDB127FCA54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4DA87-A3F2-2616-617D-BE7A8F9E5186}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1650,7 +1650,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746B2C9B-C4A4-0EC1-436C-A5D3E8BBE893}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7218C895-13AE-611C-2859-6277CCAD87F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C93BF7B-8DB6-4FBC-A2A6-09181DFFEB31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069FFFE5-9633-41BE-B361-D99D63A2CF88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1731,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A743EAB-1663-4BA6-BD25-279E66FB1F80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE7E59A-BDC6-4F59-ABE2-8F903529E3E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1774,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1521101-4A3B-4DA1-8384-9D1460080841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618182BE-04D0-4335-B268-F646E8DBBF94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F4F736-22B8-4CBA-A441-AA5DA5EEB71E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96899-4D28-479F-BA0E-0FE42D847E8D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_LEOPOLDO.xlsx
+++ b/SAO_LEOPOLDO.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{565D1C25-A4AD-4984-9133-1099ADF0C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{139B31E1-62AC-4552-A51F-D2ADE0FB1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="348">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1072,12 +1071,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,27 +1340,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F277DB80-E679-4CE9-A281-B568D6E38B7B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00F46ED0-D7C6-4C1D-B810-C622D5E586CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1397,10 +1375,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9DD7C5-3C0A-47A1-B230-5F3EC9A5CA91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E246B8-735C-437D-9AE3-D4A3F21A1A47}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1416,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA01998D-4108-417C-95DA-21A0000B5DFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BCA44C-CF4A-4FD6-9E18-4892B149F5E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1479,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E36040-1851-49E8-B22B-8117577CB442}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894A5CF2-86AD-4FCC-9213-C722B5CD569A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1498,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D51C0-AD72-D664-0775-7001692EC427}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD0B3BA-9DA8-5627-ED64-2A04EB777122}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1569,7 +1547,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508E1C0-B00F-648F-E71B-0FA86D09A258}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9AD0DF-0B8A-D4DC-9C58-7BDF122B219D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1588,7 +1566,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF33ED0-56A5-AA0C-0786-A242C25F23DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5414AEEC-4E8E-E8D9-6C94-272901C8D1E5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1619,7 +1597,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4DA87-A3F2-2616-617D-BE7A8F9E5186}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6432CDEF-478F-B51A-6416-055F625DFA68}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1650,7 +1628,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7218C895-13AE-611C-2859-6277CCAD87F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255FE0DE-2940-B0C4-6D0B-BB5A076A42D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1693,7 +1671,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069FFFE5-9633-41BE-B361-D99D63A2CF88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD541A5-1366-4DA7-8C7E-D3F44261E501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1709,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE7E59A-BDC6-4F59-ABE2-8F903529E3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C0C46F-993D-4F91-9327-B742E1D02C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1752,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618182BE-04D0-4335-B268-F646E8DBBF94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB63075C-3BAD-446D-8E50-C79347468DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96899-4D28-479F-BA0E-0FE42D847E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41135C9-0A3B-4841-9055-FD024ECC5E92}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2099,98 +2077,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8096,52 +8074,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="35">
-        <v>105</v>
-      </c>
-      <c r="C2" s="33">
-        <v>6.9435259886258434E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_LEOPOLDO.xlsx
+++ b/SAO_LEOPOLDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139B31E1-62AC-4552-A51F-D2ADE0FB1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7ADE76-F61A-49E3-92DC-CC1FEA72E4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,7 +1345,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00F46ED0-D7C6-4C1D-B810-C622D5E586CE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{87BE2934-98C4-450F-9BA3-831772B57ABA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1375,10 +1375,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E246B8-735C-437D-9AE3-D4A3F21A1A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6147F26-A02D-42B9-98C4-45A432C133E7}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1416,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BCA44C-CF4A-4FD6-9E18-4892B149F5E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15A93DB-5F94-4784-991E-8C622EF1D1F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1479,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894A5CF2-86AD-4FCC-9213-C722B5CD569A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3BF4EB-1797-4469-9F20-C983CF37232D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD0B3BA-9DA8-5627-ED64-2A04EB777122}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9DC537-F90D-0189-2A69-C05023705F9F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9AD0DF-0B8A-D4DC-9C58-7BDF122B219D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D2781E-BE0F-547A-E2CC-EF1E7FA68B37}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5414AEEC-4E8E-E8D9-6C94-272901C8D1E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800A68E7-4E80-CE3B-9716-621D1EDDF2C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1597,7 +1597,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6432CDEF-478F-B51A-6416-055F625DFA68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ACC7F5-CE44-AB8A-F738-3342DE408A23}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255FE0DE-2940-B0C4-6D0B-BB5A076A42D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EFF1F1-7FBA-4B64-4448-91128BE0B4A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1671,7 +1671,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD541A5-1366-4DA7-8C7E-D3F44261E501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAFC6C0-67F2-4775-9367-EE3706687606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1709,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C0C46F-993D-4F91-9327-B742E1D02C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161F5E61-BD2A-4D35-A4D7-4FFB8E5C9143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,50 +1734,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB63075C-3BAD-446D-8E50-C79347468DA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2065,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41135C9-0A3B-4841-9055-FD024ECC5E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED66EED5-C62D-42F8-9BDB-58352769FAC9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
